--- a/medicine/Mort/Panthéon_de_Mtatsminda/Panthéon_de_Mtatsminda.xlsx
+++ b/medicine/Mort/Panthéon_de_Mtatsminda/Panthéon_de_Mtatsminda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Panth%C3%A9on_de_Mtatsminda</t>
+          <t>Panthéon_de_Mtatsminda</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Panthéon de Mtatsminda (en géorgien : მთაწმინდის პანთეონი) est le panthéon national géorgien. C'est un cimetière autour de l'église de Mama Daviti (Saint-David ou père David)[1] sur le versant du mont Mtatsminda (la Sainte Montagne[2]) à Tbilissi.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Panthéon de Mtatsminda (en géorgien : მთაწმინდის პანთეონი) est le panthéon national géorgien. C'est un cimetière autour de l'église de Mama Daviti (Saint-David ou père David) sur le versant du mont Mtatsminda (la Sainte Montagne) à Tbilissi.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Panth%C3%A9on_de_Mtatsminda</t>
+          <t>Panthéon_de_Mtatsminda</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au XIXe siècle, c'est la nécropole réservée à l'aristocratie géorgienne. L'idée d'établir un panthéon apparaît en 1915 au moment de l'inhumation d'Akaki Tsereteli. Il est inauguré officiellement en 1929, à l'occasion du centenaire de la mort d'Alexandre Griboïedov. En 1930, le pouvoir soviétique en élimine les tombes des généraux et hauts fonctionnaires du régime impérial[3]. 
-Après que la Géorgie retrouve son indépendance, un nouveau remaniement des sépultures a lieu. Les anciens bolcheviks sont exhumés et enterrés ailleurs, libérant la place aux dissidents et représentants du mouvement indépendantiste. Toutefois, la tombe[4] de la mère de Josef Staline, Ekaterina Gueorguievna Gueladzé s'y trouve toujours[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au XIXe siècle, c'est la nécropole réservée à l'aristocratie géorgienne. L'idée d'établir un panthéon apparaît en 1915 au moment de l'inhumation d'Akaki Tsereteli. Il est inauguré officiellement en 1929, à l'occasion du centenaire de la mort d'Alexandre Griboïedov. En 1930, le pouvoir soviétique en élimine les tombes des généraux et hauts fonctionnaires du régime impérial. 
+Après que la Géorgie retrouve son indépendance, un nouveau remaniement des sépultures a lieu. Les anciens bolcheviks sont exhumés et enterrés ailleurs, libérant la place aux dissidents et représentants du mouvement indépendantiste. Toutefois, la tombe de la mère de Josef Staline, Ekaterina Gueorguievna Gueladzé s'y trouve toujours.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Panth%C3%A9on_de_Mtatsminda</t>
+          <t>Panthéon_de_Mtatsminda</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,48 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le panthéon abrite les tombes d'hommes et de femmes célèbres en Géorgie, particulièrement des écrivains et des personnalités politiques.
-Écrivains et personnalités publiques
-Alexandre Griboïedov (1795–1829), écrivain russe
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le panthéon abrite les tombes d'hommes et de femmes célèbres en Géorgie, particulièrement des écrivains et des personnalités politiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Panthéon_de_Mtatsminda</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Panth%C3%A9on_de_Mtatsminda</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Écrivains et personnalités publiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alexandre Griboïedov (1795–1829), écrivain russe
 Solomon Dodachvili (1805–1836), philosophe, journaliste, historien, grammairien, écrivain
 Nino Tchavtchavadzé (1812–1857), princesse, épouse d'Alexandre Griboïedov
 Dimitri Kipiani (1814–1887), journaliste et homme public
@@ -563,24 +614,126 @@
 Vasil Barnovi (1856–1934), romancier
 Vaja-Pchavela (1861–1915), poète (ses cendres sont transférées depuis le panthéon de Didube en 1935)
 Nikoloz Baratachvili (1817-1844), poète (ses cendres sont transférées depuis le panthéon de Didube en 1938)
-Iakob Gogebachvili (1840–1912), écrivain et éducateur (ses cendres sont transférées depuis le panthéon de Didube en 1940)
-Écrivains de l'ère soviétique
-Shalva Dadiani (1874–1959), acteur et dramaturge
+Iakob Gogebachvili (1840–1912), écrivain et éducateur (ses cendres sont transférées depuis le panthéon de Didube en 1940)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Panthéon_de_Mtatsminda</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Panth%C3%A9on_de_Mtatsminda</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Écrivains de l'ère soviétique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Shalva Dadiani (1874–1959), acteur et dramaturge
 Galaktion Tabidze (1892-1959)
 Leo Kiacheli (1884–1963)
 Ioseb Grichachvili (1889–1965)
 Guiorgui Léonidzé (1899–1966)
 Simon Chikovani (1902–1966)
 Otar Chiladze (1933–2009)
-Nodar Doumbadze (1928-1984) y est inhumé en 2009.
-Écrivains contemporains
-Ana Kalandadze (1924–2008), poétesse
+Nodar Doumbadze (1928-1984) y est inhumé en 2009.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Panthéon_de_Mtatsminda</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Panth%C3%A9on_de_Mtatsminda</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Écrivains contemporains</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ana Kalandadze (1924–2008), poétesse
 Mukhran Machavariani (1929-2010), poète
 Chabua Amirejibi (1921–2013), dissident et écrivain
 Bachana Bregvadze (1936-2016), philosophe, écrivain et traducteur
-Jansug Tcharkviani (1931-2017), poète et homme politique
-Artistes
-Vaso Abachidze (1854–1926), acteur et directeur de théâtre
+Jansug Tcharkviani (1931-2017), poète et homme politique</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Panthéon_de_Mtatsminda</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Panth%C3%A9on_de_Mtatsminda</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Artistes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Vaso Abachidze (1854–1926), acteur et directeur de théâtre
 Ivane Paliachvili (1868–1934), chef d'orchestre
 Iakob Nikoladze (1876–1951), sculpteur
 Koté Mardjanichvili (1872-1933), directeur de théâtre et cinéaste, y est inhumé en 1964
@@ -589,49 +742,153 @@
 Mikhaïl Tchiaoureli (1894-1974), réalisateur
 Lado Goudiachvili (1896–1980), peintre
 Veriko Anjaparidze (1897–1987), actrice de théâtre et de cinéma, épouse de Mikhaïl Tchiaoureli.
-Vakhtang Chabukiani (1910–1992), danseur de ballet
-Érudits
-Alexandre Tsagareli (1844–1929), linguiste
+Vakhtang Chabukiani (1910–1992), danseur de ballet</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Panthéon_de_Mtatsminda</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Panth%C3%A9on_de_Mtatsminda</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Érudits</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Alexandre Tsagareli (1844–1929), linguiste
 Mose Janachvili (1855–1934), historien
 Grigol Tsereteli (1870–1938), papyrologue
 Simon Janachia (1900–1947), historien
 Ekvtimé Takhaïchvili (1863–1953), historien et archéologue
-Nikoloz Berdzenichvili (1894–1965), historien
-Scientifiques
-Nikolas Muckhelichvili (1891–1976), mathématicien
-Ilia Vekoua (1907–1977), mathématicien
-Héros et personnalités politiques
-Merab Kostava (1939–1989), poète, dissident et héros national
+Nikoloz Berdzenichvili (1894–1965), historien</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Panthéon_de_Mtatsminda</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Panth%C3%A9on_de_Mtatsminda</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Scientifiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Nikolas Muckhelichvili (1891–1976), mathématicien
+Ilia Vekoua (1907–1977), mathématicien</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Panthéon_de_Mtatsminda</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Panth%C3%A9on_de_Mtatsminda</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Héros et personnalités politiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Merab Kostava (1939–1989), poète, dissident et héros national
 Kakoutsa Tcholokhachvili (1888–1930), héros national et opposant au régime soviétique (ses cendres sont transférées en 2005)
 Zviad Gamsakhurdia (1939–1993), dissident et premier président élu du pays (ses cendres sont transférées en 2007)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Panth%C3%A9on_de_Mtatsminda</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Panth%C3%A9on_de_Mtatsminda</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Panthéon_de_Mtatsminda</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Panth%C3%A9on_de_Mtatsminda</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Mémoriaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Le 21 septembre 2011, un mémorial signé de Nikoloz Maisuradze est inauguré pour honorer la mémoire de plusieurs personnalités victimes des Grandes Purges. 
 Sandro Akhmeteli (1886-1937), homme de théâtre
